--- a/tests/files/files_data_source/registros_exitosos.xlsx
+++ b/tests/files/files_data_source/registros_exitosos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,30 +424,35 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>baezajuliana249</t>
+          <t>adelina41736</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Eutimio</t>
+          <t>Maricruz</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Molins</t>
+          <t>Zamora</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>carreteroclara@alcantara.com</t>
+          <t>igalindo@gmail.com</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>P9F$S*mx+j(N</t>
+          <t>W5V&amp;vdsE0LHZ</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
+        <is>
+          <t>W5V&amp;vdsE0LHZ</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
         <is>
           <t>Válido</t>
         </is>
@@ -456,30 +461,72 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ynavarro356</t>
+          <t>samanta15396</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Juana</t>
+          <t>Ruth</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Alarcón</t>
+          <t>Silva</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>mariscalaurelio@yahoo.com</t>
+          <t>flastra@inversiones.es</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>p(W^mdu_&amp;)8G</t>
+          <t>m7FUa5ed*CIF</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
+        <is>
+          <t>m7FUa5ed*CIF</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Válido</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>maciassarita605</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Elena</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Solana</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>emilia67@gmail.com</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2Tq(uBue#^o1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2Tq(uBue#^o1</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>Válido</t>
         </is>

--- a/tests/files/files_data_source/registros_exitosos.xlsx
+++ b/tests/files/files_data_source/registros_exitosos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,6 +532,43 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>lermacasemiro979</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Luz</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Macías</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>chita77@compania.com</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>#r(5dVgl)Cd2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>#r(5dVgl)Cd2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Válido</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tests/files/files_data_source/registros_exitosos.xlsx
+++ b/tests/files/files_data_source/registros_exitosos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,6 +569,228 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>kcoronado156</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>María Belén</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Amorós</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>nadiaalcaraz@valero.es</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1YX7jZ!eyY*u</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1YX7jZ!eyY*u</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Válido</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>gilbertocorrea444</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Evaristo</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Iglesia</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>panfilo52@hotmail.com</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>XOm14N4yyjB*</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>XOm14N4yyjB*</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Válido</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>psaavedra827</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lorenza</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Vilar</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>wlobato@hotmail.com</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Aj3JoXpwcH!X</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Aj3JoXpwcH!X</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Válido</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ncid502</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Diego</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Serrano</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>gustavo19@hotmail.com</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>C^sDxa_9vB6Z</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>C^sDxa_9vB6Z</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Válido</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>wmarco465</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Manu</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Pomares</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>azucenatalavera@adolfo.com</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ipJK4AAAy#!E</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>ipJK4AAAy#!E</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Válido</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>merchesotelo284</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Emperatriz</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Botella</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>graciela25@hotmail.com</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1_Hmegy*(!2B</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1_Hmegy*(!2B</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Válido</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tests/files/files_data_source/registros_exitosos.xlsx
+++ b/tests/files/files_data_source/registros_exitosos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -791,6 +791,43 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>tsolera656</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Raimundo</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Guijarro</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>pmanjon@gmail.com</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>n^s4O8bE*z0m</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>n^s4O8bE*z0m</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Válido</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tests/files/files_data_source/registros_exitosos.xlsx
+++ b/tests/files/files_data_source/registros_exitosos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -828,6 +828,80 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>nieves88161</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Alejo</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Tamarit</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>guardiolaangel@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NstFK(*u)5Ub</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NstFK(*u)5Ub</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Válido</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>soniagabaldon497</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Apolinar</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Tomás</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>oliverastecla@fabrica.com</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>#8nPaoNb^7#U</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>#8nPaoNb^7#U</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Válido</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
